--- a/test.xlsx
+++ b/test.xlsx
@@ -27,43 +27,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>杜宪章</t>
   </si>
   <si>
-    <t>金寨县</t>
-  </si>
-  <si>
-    <t>赵冰冰</t>
-  </si>
-  <si>
-    <t>富阳镇</t>
-  </si>
-  <si>
-    <t>李会烦</t>
-  </si>
-  <si>
-    <t>安庆市</t>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <rPh sb="0" eb="1">
-      <t>an'qing'shi</t>
+      <t>nan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>phone</t>
+    <t>bind_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'gong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T193781-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fss1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +160,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,84 +442,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" zoomScalePageLayoutView="208" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="208" zoomScaleNormal="208" zoomScalePageLayoutView="208" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>177181939323</v>
       </c>
+      <c r="E2" s="2">
+        <v>42990</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>18373847234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>103934947892</v>
-      </c>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
